--- a/biology/Histoire de la zoologie et de la botanique/Sigismond_Zaborowski-Moindron/Sigismond_Zaborowski-Moindron.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sigismond_Zaborowski-Moindron/Sigismond_Zaborowski-Moindron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sigismond Zaborowski-Moindron, né le 11 novembre 1851 à La Crèche dans les Deux-Sèvres et mort le 22 mars 1928 à El Biar en Algérie[1], est un anthropologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sigismond Zaborowski-Moindron, né le 11 novembre 1851 à La Crèche dans les Deux-Sèvres et mort le 22 mars 1928 à El Biar en Algérie, est un anthropologue français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léopold Sigismond Jules Zaborowski est le fils de Michel Léopold Zaborowski, médecin et d'Adélaïde Moindron[2].
-Il épouse en 1881 l'artiste peintre[3] Gabrielle Félicité Eylé (1852-1938)[4]. Parmi leurs enfants, Hélène Gilberte Zaborowska (1889-1982) deviendra également artiste peintre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léopold Sigismond Jules Zaborowski est le fils de Michel Léopold Zaborowski, médecin et d'Adélaïde Moindron.
+Il épouse en 1881 l'artiste peintre Gabrielle Félicité Eylé (1852-1938). Parmi leurs enfants, Hélène Gilberte Zaborowska (1889-1982) deviendra également artiste peintre.
 Sigismond Zaborowski-Moindron est professeur à l’École d'anthropologie de Paris : chargé de conférences (1893-1901) ; professeur-adjoint (1902) puis professeur titulaire de la chaire d'ethnographie (1904) - et membre de la Société d'anthropologie de Paris - membre titulaire (1874) ; secrétaire des séances (1882) ; archiviste bibliothécaire (1892-1906) ; vice-président (1906) puis président (1907).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De l'ancienneté de l’homme, 1874
 L'homme préhistorique, 1878
